--- a/data/PAREDES AGUILAR ILIANA GABRIELA.xlsx
+++ b/data/PAREDES AGUILAR ILIANA GABRIELA.xlsx
@@ -662,10 +662,10 @@
   <cols>
     <col width="33" customWidth="1" min="1" max="1"/>
     <col width="56" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -681,22 +681,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>febrero</t>
+          <t>marzo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
     </row>

--- a/data/PAREDES AGUILAR ILIANA GABRIELA.xlsx
+++ b/data/PAREDES AGUILAR ILIANA GABRIELA.xlsx
@@ -652,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,6 +666,7 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -699,6 +700,11 @@
           <t>junio</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -723,6 +729,9 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="C3" s="4" t="n">
@@ -735,6 +744,9 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/PAREDES AGUILAR ILIANA GABRIELA.xlsx
+++ b/data/PAREDES AGUILAR ILIANA GABRIELA.xlsx
@@ -652,7 +652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,7 +666,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -700,11 +699,6 @@
           <t>junio</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>PRESUPUESTO</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -729,9 +723,6 @@
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="C3" s="4" t="n">
@@ -744,9 +735,6 @@
         <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/PAREDES AGUILAR ILIANA GABRIELA.xlsx
+++ b/data/PAREDES AGUILAR ILIANA GABRIELA.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,15 +448,19 @@
     <col width="25" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="13" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="24" customWidth="1" min="11" max="11"/>
-    <col width="17" customWidth="1" min="12" max="12"/>
-    <col width="26" customWidth="1" min="13" max="13"/>
-    <col width="17" customWidth="1" min="14" max="14"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" min="9" max="9"/>
+    <col width="9" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="24" customWidth="1" min="12" max="12"/>
+    <col width="17" customWidth="1" min="13" max="13"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="17" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="17" customWidth="1" min="17" max="17"/>
+    <col width="16" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,47 +491,67 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>GRANITO</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>GRIFERIAS</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>INODOROS</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>LAVABOS</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>LED</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>PANELES DECORATIVOS</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>PIEDRA SINTERIZADA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>PORCELANATO</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>PUERTAS DE SEGURIDAD</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>SAL SOLUBLE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>NO RESURTIBLES</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>PANELES PVC</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>PANELES PU</t>
         </is>
       </c>
     </row>
@@ -578,6 +602,18 @@
       <c r="N2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="C3" s="3" t="inlineStr">
@@ -636,6 +672,26 @@
         </is>
       </c>
       <c r="N3" s="3" t="inlineStr">
+        <is>
+          <t>0 de 1</t>
+        </is>
+      </c>
+      <c r="O3" s="3" t="inlineStr">
+        <is>
+          <t>0 de 1</t>
+        </is>
+      </c>
+      <c r="P3" s="3" t="inlineStr">
+        <is>
+          <t>0 de 1</t>
+        </is>
+      </c>
+      <c r="Q3" s="3" t="inlineStr">
+        <is>
+          <t>0 de 1</t>
+        </is>
+      </c>
+      <c r="R3" s="3" t="inlineStr">
         <is>
           <t>0 de 1</t>
         </is>

--- a/data/PAREDES AGUILAR ILIANA GABRIELA.xlsx
+++ b/data/PAREDES AGUILAR ILIANA GABRIELA.xlsx
@@ -719,8 +719,8 @@
     <col width="33" customWidth="1" min="1" max="1"/>
     <col width="56" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
     <col width="17" customWidth="1" min="7" max="7"/>
   </cols>
@@ -738,22 +738,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>marzo</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>mayo</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>mayo</t>
+          <t>junio</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>junio</t>
+          <t>julio</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
